--- a/data/wsjf_features.xlsx
+++ b/data/wsjf_features.xlsx
@@ -532,10 +532,10 @@
         <v>3</v>
       </c>
       <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
         <v>2</v>
-      </c>
-      <c r="G2">
-        <v>1</v>
       </c>
       <c r="H2">
         <v>1</v>
@@ -547,7 +547,7 @@
         <v>6</v>
       </c>
       <c r="K2">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -567,7 +567,7 @@
         <v>3</v>
       </c>
       <c r="F3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G3">
         <v>3</v>
@@ -576,13 +576,13 @@
         <v>3</v>
       </c>
       <c r="I3">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J3">
-        <v>2.67</v>
+        <v>3</v>
       </c>
       <c r="K3">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -599,25 +599,25 @@
         <v>28</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F4">
         <v>3</v>
       </c>
       <c r="G4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H4">
         <v>3</v>
       </c>
       <c r="I4">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J4">
-        <v>3</v>
+        <v>3.33</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -634,22 +634,22 @@
         <v>29</v>
       </c>
       <c r="E5">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="F5">
         <v>8</v>
       </c>
       <c r="G5">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="H5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I5">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="J5">
-        <v>8.67</v>
+        <v>14.5</v>
       </c>
       <c r="K5">
         <v>8</v>
@@ -668,26 +668,11 @@
       <c r="D6" t="s">
         <v>30</v>
       </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>34</v>
-      </c>
-      <c r="H6">
-        <v>34</v>
-      </c>
       <c r="I6">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>1.06</v>
-      </c>
-      <c r="K6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
